--- a/src/main/resources/SZ002970.xlsx
+++ b/src/main/resources/SZ002970.xlsx
@@ -224,11 +224,51 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>20201211</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5200.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20201217</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5870.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>20201229</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B19" t="n">
         <v>4900.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20210208</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4752.0</v>
       </c>
     </row>
   </sheetData>
